--- a/APM files/130228590/120493895 EXPORT Promotion Export.xlsx
+++ b/APM files/130228590/120493895 EXPORT Promotion Export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\github-repositories\core_ota\Expedia Templates\BMC\BMC2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/130228590/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFABD54-CEB1-4FD8-B464-D1DE392A397C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69475A2-A83E-A748-AC20-7EEBF505FA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="5040" windowWidth="25755" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="1300" windowWidth="25760" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="12">
   <si>
     <t>Property Name</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -71,6 +71,9 @@
   <si>
     <t>Yes</t>
   </si>
+  <si>
+    <t> 95545447</t>
+  </si>
 </sst>
 </file>
 
@@ -93,12 +96,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,9 +122,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,25 +409,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -443,9 +456,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>123</v>
+        <v>17267463</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -457,6 +470,4239 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>17268185</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>17268291</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>17429448</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>17475800</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>17670891</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>17672644</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>17673299</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>17673941</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>17674275</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>17674538</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>17674742</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>17675168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>17709692</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20318360</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>21525807</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>21609304</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>21759033</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>22329765</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>22632813</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>23172891</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>25678815</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>25681287</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25681842</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25788063</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25788195</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27185621</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27187919</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27189348</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30492632</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31628016</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32444332</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32574755</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32574862</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>32713837</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>32714357</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>32714560</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>33014623</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>33318157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>33633249</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>33761599</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>34570722</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>35371856</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>36025478</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>38500081</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>42314885</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>44548104</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>44548253</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>44548362</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>44548571</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>44761159</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>44761313</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>44761943</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>44762073</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>44762812</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>44762872</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>45284831</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>45285576</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>45285716</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>53848289</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>55195364</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>57670530</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>57673764</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>59799165</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>59799169</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>59799172</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>59799173</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>59799174</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>59799176</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>59799179</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>59799182</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>59799183</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>59799184</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>59799185</v>
+      </c>
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>59799186</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>59799187</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>59799188</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>59799189</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>59799194</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>59799195</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>59799196</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>59799197</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>59799199</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>59799202</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>61555271</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>61618658</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>61638258</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>61638981</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>61639387</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>61639693</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>62574059</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>62574984</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>62594239</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>62594745</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>63872085</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>63875583</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>63894157</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>64012864</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>64148805</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>64150702</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>64159247</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>64172970</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>64689891</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>64693659</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>64714388</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>65254062</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>65376456</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>65377173</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>65377754</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>66199641</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>66200420</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>66348448</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>66960526</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>93529418</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>32714266</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>17673603</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>17674610</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>74129864</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>20926636</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>33286629</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>33014374</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>59799200</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>73722730</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>91208613</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>7436160</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>74636752</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>74674306</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" t="s">
+        <v>8</v>
+      </c>
+      <c r="H128" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>74692933</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>74693837</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>74797507</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>78368732</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>91574130</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>91573648</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>78367681</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" t="s">
+        <v>10</v>
+      </c>
+      <c r="I135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>78352402</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>78350389</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>83303211</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>91572503</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>89401725</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>91573366</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>88795966</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>88756488</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>75848413</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>93025781</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>90163433</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" t="s">
+        <v>10</v>
+      </c>
+      <c r="I146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>90145651</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+      <c r="G147" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" t="s">
+        <v>10</v>
+      </c>
+      <c r="I147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>90163071</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" t="s">
+        <v>10</v>
+      </c>
+      <c r="I148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>96709571</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" t="s">
+        <v>10</v>
+      </c>
+      <c r="I149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>96726928</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" t="s">
+        <v>10</v>
+      </c>
+      <c r="I150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>96766445</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" t="s">
+        <v>10</v>
+      </c>
+      <c r="I151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>96657184</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" t="s">
+        <v>10</v>
+      </c>
+      <c r="I152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>964664519</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" t="s">
+        <v>10</v>
+      </c>
+      <c r="I153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>96770291</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" t="s">
+        <v>10</v>
+      </c>
+      <c r="I154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>96768021</v>
+      </c>
+      <c r="F155" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" t="s">
+        <v>10</v>
+      </c>
+      <c r="I155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>96523361</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" t="s">
+        <v>10</v>
+      </c>
+      <c r="I156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>96380683</v>
+      </c>
+      <c r="F157" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>96360396</v>
+      </c>
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" t="s">
+        <v>10</v>
+      </c>
+      <c r="I158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>96192425</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" t="s">
+        <v>10</v>
+      </c>
+      <c r="I159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>96171382</v>
+      </c>
+      <c r="F160" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>96170198</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" t="s">
+        <v>10</v>
+      </c>
+      <c r="I161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>96080887</v>
+      </c>
+      <c r="F162" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" t="s">
+        <v>10</v>
+      </c>
+      <c r="I162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>96063900</v>
+      </c>
+      <c r="F163" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" t="s">
+        <v>10</v>
+      </c>
+      <c r="I163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>96149397</v>
+      </c>
+      <c r="F164" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" t="s">
+        <v>10</v>
+      </c>
+      <c r="I164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>96006630</v>
+      </c>
+      <c r="F165" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" t="s">
+        <v>10</v>
+      </c>
+      <c r="I165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>95953224</v>
+      </c>
+      <c r="F166" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>96081660</v>
+      </c>
+      <c r="F167" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" t="s">
+        <v>10</v>
+      </c>
+      <c r="I167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>96082340</v>
+      </c>
+      <c r="F168" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" t="s">
+        <v>10</v>
+      </c>
+      <c r="I168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>96808610</v>
+      </c>
+      <c r="F169" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" t="s">
+        <v>10</v>
+      </c>
+      <c r="I169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>95715308</v>
+      </c>
+      <c r="F170" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" t="s">
+        <v>10</v>
+      </c>
+      <c r="I170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>95752285</v>
+      </c>
+      <c r="F171" t="s">
+        <v>8</v>
+      </c>
+      <c r="G171" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" t="s">
+        <v>10</v>
+      </c>
+      <c r="I171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>95690458</v>
+      </c>
+      <c r="F172" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" t="s">
+        <v>10</v>
+      </c>
+      <c r="I172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>95796436</v>
+      </c>
+      <c r="F173" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" t="s">
+        <v>10</v>
+      </c>
+      <c r="I173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" t="s">
+        <v>10</v>
+      </c>
+      <c r="I174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>95539331</v>
+      </c>
+      <c r="F175" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" t="s">
+        <v>10</v>
+      </c>
+      <c r="I175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>95434856</v>
+      </c>
+      <c r="F176" t="s">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" t="s">
+        <v>10</v>
+      </c>
+      <c r="I176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>95410786</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" t="s">
+        <v>10</v>
+      </c>
+      <c r="I177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>95341472</v>
+      </c>
+      <c r="F178" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" t="s">
+        <v>10</v>
+      </c>
+      <c r="I178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>95337847</v>
+      </c>
+      <c r="F179" t="s">
+        <v>8</v>
+      </c>
+      <c r="G179" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" t="s">
+        <v>10</v>
+      </c>
+      <c r="I179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>95749514</v>
+      </c>
+      <c r="F180" t="s">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" t="s">
+        <v>10</v>
+      </c>
+      <c r="I180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>95722601</v>
+      </c>
+      <c r="F181" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" t="s">
+        <v>10</v>
+      </c>
+      <c r="I181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>95205390</v>
+      </c>
+      <c r="F182" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" t="s">
+        <v>8</v>
+      </c>
+      <c r="H182" t="s">
+        <v>10</v>
+      </c>
+      <c r="I182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>95123440</v>
+      </c>
+      <c r="F183" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" t="s">
+        <v>10</v>
+      </c>
+      <c r="I183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>95162249</v>
+      </c>
+      <c r="F184" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" t="s">
+        <v>10</v>
+      </c>
+      <c r="I184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>94936831</v>
+      </c>
+      <c r="F185" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" t="s">
+        <v>8</v>
+      </c>
+      <c r="H185" t="s">
+        <v>10</v>
+      </c>
+      <c r="I185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>94939963</v>
+      </c>
+      <c r="F186" t="s">
+        <v>8</v>
+      </c>
+      <c r="G186" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186" t="s">
+        <v>10</v>
+      </c>
+      <c r="I186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>95056805</v>
+      </c>
+      <c r="F187" t="s">
+        <v>8</v>
+      </c>
+      <c r="G187" t="s">
+        <v>8</v>
+      </c>
+      <c r="H187" t="s">
+        <v>10</v>
+      </c>
+      <c r="I187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>94767465</v>
+      </c>
+      <c r="F188" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" t="s">
+        <v>10</v>
+      </c>
+      <c r="I188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>94796128</v>
+      </c>
+      <c r="F189" t="s">
+        <v>8</v>
+      </c>
+      <c r="G189" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" t="s">
+        <v>10</v>
+      </c>
+      <c r="I189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>94666214</v>
+      </c>
+      <c r="F190" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" t="s">
+        <v>10</v>
+      </c>
+      <c r="I190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>94322088</v>
+      </c>
+      <c r="F191" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" t="s">
+        <v>8</v>
+      </c>
+      <c r="H191" t="s">
+        <v>10</v>
+      </c>
+      <c r="I191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>94235352</v>
+      </c>
+      <c r="F192" t="s">
+        <v>8</v>
+      </c>
+      <c r="G192" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" t="s">
+        <v>10</v>
+      </c>
+      <c r="I192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>94210286</v>
+      </c>
+      <c r="F193" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" t="s">
+        <v>10</v>
+      </c>
+      <c r="I193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>93846931</v>
+      </c>
+      <c r="F194" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" t="s">
+        <v>8</v>
+      </c>
+      <c r="H194" t="s">
+        <v>10</v>
+      </c>
+      <c r="I194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>93845351</v>
+      </c>
+      <c r="F195" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" t="s">
+        <v>10</v>
+      </c>
+      <c r="I195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>93836678</v>
+      </c>
+      <c r="F196" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" t="s">
+        <v>8</v>
+      </c>
+      <c r="H196" t="s">
+        <v>10</v>
+      </c>
+      <c r="I196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>93827715</v>
+      </c>
+      <c r="F197" t="s">
+        <v>8</v>
+      </c>
+      <c r="G197" t="s">
+        <v>8</v>
+      </c>
+      <c r="H197" t="s">
+        <v>10</v>
+      </c>
+      <c r="I197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>93709677</v>
+      </c>
+      <c r="F198" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198" t="s">
+        <v>8</v>
+      </c>
+      <c r="H198" t="s">
+        <v>10</v>
+      </c>
+      <c r="I198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>93696084</v>
+      </c>
+      <c r="F199" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199" t="s">
+        <v>8</v>
+      </c>
+      <c r="H199" t="s">
+        <v>10</v>
+      </c>
+      <c r="I199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>93671343</v>
+      </c>
+      <c r="F200" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200" t="s">
+        <v>8</v>
+      </c>
+      <c r="H200" t="s">
+        <v>10</v>
+      </c>
+      <c r="I200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>93669198</v>
+      </c>
+      <c r="F201" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" t="s">
+        <v>10</v>
+      </c>
+      <c r="I201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>93510815</v>
+      </c>
+      <c r="F202" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202" t="s">
+        <v>8</v>
+      </c>
+      <c r="H202" t="s">
+        <v>10</v>
+      </c>
+      <c r="I202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>93503280</v>
+      </c>
+      <c r="F203" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" t="s">
+        <v>8</v>
+      </c>
+      <c r="H203" t="s">
+        <v>10</v>
+      </c>
+      <c r="I203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>93459737</v>
+      </c>
+      <c r="F204" t="s">
+        <v>8</v>
+      </c>
+      <c r="G204" t="s">
+        <v>8</v>
+      </c>
+      <c r="H204" t="s">
+        <v>10</v>
+      </c>
+      <c r="I204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>93476341</v>
+      </c>
+      <c r="F205" t="s">
+        <v>8</v>
+      </c>
+      <c r="G205" t="s">
+        <v>8</v>
+      </c>
+      <c r="H205" t="s">
+        <v>10</v>
+      </c>
+      <c r="I205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>93443596</v>
+      </c>
+      <c r="F206" t="s">
+        <v>8</v>
+      </c>
+      <c r="G206" t="s">
+        <v>8</v>
+      </c>
+      <c r="H206" t="s">
+        <v>10</v>
+      </c>
+      <c r="I206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>93445293</v>
+      </c>
+      <c r="F207" t="s">
+        <v>8</v>
+      </c>
+      <c r="G207" t="s">
+        <v>8</v>
+      </c>
+      <c r="H207" t="s">
+        <v>10</v>
+      </c>
+      <c r="I207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>93393651</v>
+      </c>
+      <c r="F208" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" t="s">
+        <v>8</v>
+      </c>
+      <c r="H208" t="s">
+        <v>10</v>
+      </c>
+      <c r="I208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>93237842</v>
+      </c>
+      <c r="F209" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209" t="s">
+        <v>8</v>
+      </c>
+      <c r="H209" t="s">
+        <v>10</v>
+      </c>
+      <c r="I209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>93234753</v>
+      </c>
+      <c r="F210" t="s">
+        <v>8</v>
+      </c>
+      <c r="G210" t="s">
+        <v>8</v>
+      </c>
+      <c r="H210" t="s">
+        <v>10</v>
+      </c>
+      <c r="I210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>93233755</v>
+      </c>
+      <c r="F211" t="s">
+        <v>8</v>
+      </c>
+      <c r="G211" t="s">
+        <v>8</v>
+      </c>
+      <c r="H211" t="s">
+        <v>10</v>
+      </c>
+      <c r="I211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>93232306</v>
+      </c>
+      <c r="F212" t="s">
+        <v>8</v>
+      </c>
+      <c r="G212" t="s">
+        <v>8</v>
+      </c>
+      <c r="H212" t="s">
+        <v>10</v>
+      </c>
+      <c r="I212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>93214906</v>
+      </c>
+      <c r="F213" t="s">
+        <v>8</v>
+      </c>
+      <c r="G213" t="s">
+        <v>8</v>
+      </c>
+      <c r="H213" t="s">
+        <v>10</v>
+      </c>
+      <c r="I213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>93214068</v>
+      </c>
+      <c r="F214" t="s">
+        <v>8</v>
+      </c>
+      <c r="G214" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" t="s">
+        <v>10</v>
+      </c>
+      <c r="I214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>93201798</v>
+      </c>
+      <c r="F215" t="s">
+        <v>8</v>
+      </c>
+      <c r="G215" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" t="s">
+        <v>10</v>
+      </c>
+      <c r="I215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>92890307</v>
+      </c>
+      <c r="F216" t="s">
+        <v>8</v>
+      </c>
+      <c r="G216" t="s">
+        <v>8</v>
+      </c>
+      <c r="H216" t="s">
+        <v>10</v>
+      </c>
+      <c r="I216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>93025781</v>
+      </c>
+      <c r="F217" t="s">
+        <v>8</v>
+      </c>
+      <c r="G217" t="s">
+        <v>8</v>
+      </c>
+      <c r="H217" t="s">
+        <v>10</v>
+      </c>
+      <c r="I217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>93021829</v>
+      </c>
+      <c r="F218" t="s">
+        <v>8</v>
+      </c>
+      <c r="G218" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" t="s">
+        <v>10</v>
+      </c>
+      <c r="I218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>94731393</v>
+      </c>
+      <c r="F219" t="s">
+        <v>8</v>
+      </c>
+      <c r="G219" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" t="s">
+        <v>10</v>
+      </c>
+      <c r="I219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>91741433</v>
+      </c>
+      <c r="F220" t="s">
+        <v>8</v>
+      </c>
+      <c r="G220" t="s">
+        <v>8</v>
+      </c>
+      <c r="H220" t="s">
+        <v>10</v>
+      </c>
+      <c r="I220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>91105247</v>
+      </c>
+      <c r="F221" t="s">
+        <v>8</v>
+      </c>
+      <c r="G221" t="s">
+        <v>8</v>
+      </c>
+      <c r="H221" t="s">
+        <v>10</v>
+      </c>
+      <c r="I221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>91056329</v>
+      </c>
+      <c r="F222" t="s">
+        <v>8</v>
+      </c>
+      <c r="G222" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" t="s">
+        <v>10</v>
+      </c>
+      <c r="I222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>91104487</v>
+      </c>
+      <c r="F223" t="s">
+        <v>8</v>
+      </c>
+      <c r="G223" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" t="s">
+        <v>10</v>
+      </c>
+      <c r="I223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>90847770</v>
+      </c>
+      <c r="F224" t="s">
+        <v>8</v>
+      </c>
+      <c r="G224" t="s">
+        <v>8</v>
+      </c>
+      <c r="H224" t="s">
+        <v>10</v>
+      </c>
+      <c r="I224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>99519259</v>
+      </c>
+      <c r="F225" t="s">
+        <v>8</v>
+      </c>
+      <c r="G225" t="s">
+        <v>8</v>
+      </c>
+      <c r="H225" t="s">
+        <v>10</v>
+      </c>
+      <c r="I225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>99310529</v>
+      </c>
+      <c r="F226" t="s">
+        <v>8</v>
+      </c>
+      <c r="G226" t="s">
+        <v>8</v>
+      </c>
+      <c r="H226" t="s">
+        <v>10</v>
+      </c>
+      <c r="I226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>99324533</v>
+      </c>
+      <c r="F227" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227" t="s">
+        <v>8</v>
+      </c>
+      <c r="H227" t="s">
+        <v>10</v>
+      </c>
+      <c r="I227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>96170198</v>
+      </c>
+      <c r="F228" t="s">
+        <v>8</v>
+      </c>
+      <c r="G228" t="s">
+        <v>8</v>
+      </c>
+      <c r="H228" t="s">
+        <v>10</v>
+      </c>
+      <c r="I228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>96171382</v>
+      </c>
+      <c r="F229" t="s">
+        <v>8</v>
+      </c>
+      <c r="G229" t="s">
+        <v>8</v>
+      </c>
+      <c r="H229" t="s">
+        <v>10</v>
+      </c>
+      <c r="I229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>95796436</v>
+      </c>
+      <c r="F230" t="s">
+        <v>8</v>
+      </c>
+      <c r="G230" t="s">
+        <v>8</v>
+      </c>
+      <c r="H230" t="s">
+        <v>10</v>
+      </c>
+      <c r="I230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>95056805</v>
+      </c>
+      <c r="F231" t="s">
+        <v>8</v>
+      </c>
+      <c r="G231" t="s">
+        <v>8</v>
+      </c>
+      <c r="H231" t="s">
+        <v>10</v>
+      </c>
+      <c r="I231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>96722498</v>
+      </c>
+      <c r="F232" t="s">
+        <v>8</v>
+      </c>
+      <c r="G232" t="s">
+        <v>8</v>
+      </c>
+      <c r="H232" t="s">
+        <v>10</v>
+      </c>
+      <c r="I232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>99280982</v>
+      </c>
+      <c r="F233" t="s">
+        <v>8</v>
+      </c>
+      <c r="G233" t="s">
+        <v>8</v>
+      </c>
+      <c r="H233" t="s">
+        <v>10</v>
+      </c>
+      <c r="I233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>95162249</v>
+      </c>
+      <c r="F234" t="s">
+        <v>8</v>
+      </c>
+      <c r="G234" t="s">
+        <v>8</v>
+      </c>
+      <c r="H234" t="s">
+        <v>10</v>
+      </c>
+      <c r="I234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>97209531</v>
+      </c>
+      <c r="F235" t="s">
+        <v>8</v>
+      </c>
+      <c r="G235" t="s">
+        <v>8</v>
+      </c>
+      <c r="H235" t="s">
+        <v>10</v>
+      </c>
+      <c r="I235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>96063900</v>
+      </c>
+      <c r="F236" t="s">
+        <v>8</v>
+      </c>
+      <c r="G236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H236" t="s">
+        <v>10</v>
+      </c>
+      <c r="I236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>96080887</v>
+      </c>
+      <c r="F237" t="s">
+        <v>8</v>
+      </c>
+      <c r="G237" t="s">
+        <v>8</v>
+      </c>
+      <c r="H237" t="s">
+        <v>10</v>
+      </c>
+      <c r="I237" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>96726928</v>
+      </c>
+      <c r="F238" t="s">
+        <v>8</v>
+      </c>
+      <c r="G238" t="s">
+        <v>8</v>
+      </c>
+      <c r="H238" t="s">
+        <v>10</v>
+      </c>
+      <c r="I238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>96808610</v>
+      </c>
+      <c r="F239" t="s">
+        <v>8</v>
+      </c>
+      <c r="G239" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" t="s">
+        <v>10</v>
+      </c>
+      <c r="I239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>96464519</v>
+      </c>
+      <c r="F240" t="s">
+        <v>8</v>
+      </c>
+      <c r="G240" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" t="s">
+        <v>10</v>
+      </c>
+      <c r="I240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>96523361</v>
+      </c>
+      <c r="F241" t="s">
+        <v>8</v>
+      </c>
+      <c r="G241" t="s">
+        <v>8</v>
+      </c>
+      <c r="H241" t="s">
+        <v>10</v>
+      </c>
+      <c r="I241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>96380683</v>
+      </c>
+      <c r="F242" t="s">
+        <v>8</v>
+      </c>
+      <c r="G242" t="s">
+        <v>8</v>
+      </c>
+      <c r="H242" t="s">
+        <v>10</v>
+      </c>
+      <c r="I242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>96192425</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+      <c r="G243" t="s">
+        <v>8</v>
+      </c>
+      <c r="H243" t="s">
+        <v>10</v>
+      </c>
+      <c r="I243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>96657184</v>
+      </c>
+      <c r="F244" t="s">
+        <v>8</v>
+      </c>
+      <c r="G244" t="s">
+        <v>8</v>
+      </c>
+      <c r="H244" t="s">
+        <v>10</v>
+      </c>
+      <c r="I244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>94936831</v>
+      </c>
+      <c r="F245" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245" t="s">
+        <v>8</v>
+      </c>
+      <c r="H245" t="s">
+        <v>10</v>
+      </c>
+      <c r="I245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>96360396</v>
+      </c>
+      <c r="F246" t="s">
+        <v>8</v>
+      </c>
+      <c r="G246" t="s">
+        <v>8</v>
+      </c>
+      <c r="H246" t="s">
+        <v>10</v>
+      </c>
+      <c r="I246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>95752285</v>
+      </c>
+      <c r="F247" t="s">
+        <v>8</v>
+      </c>
+      <c r="G247" t="s">
+        <v>8</v>
+      </c>
+      <c r="H247" t="s">
+        <v>10</v>
+      </c>
+      <c r="I247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>95715308</v>
+      </c>
+      <c r="F248" t="s">
+        <v>8</v>
+      </c>
+      <c r="G248" t="s">
+        <v>8</v>
+      </c>
+      <c r="H248" t="s">
+        <v>10</v>
+      </c>
+      <c r="I248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>96006630</v>
+      </c>
+      <c r="F249" t="s">
+        <v>8</v>
+      </c>
+      <c r="G249" t="s">
+        <v>8</v>
+      </c>
+      <c r="H249" t="s">
+        <v>10</v>
+      </c>
+      <c r="I249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>99794311</v>
+      </c>
+      <c r="F250" t="s">
+        <v>8</v>
+      </c>
+      <c r="G250" t="s">
+        <v>8</v>
+      </c>
+      <c r="H250" t="s">
+        <v>10</v>
+      </c>
+      <c r="I250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>96932681</v>
+      </c>
+      <c r="F251" t="s">
+        <v>8</v>
+      </c>
+      <c r="G251" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" t="s">
+        <v>10</v>
+      </c>
+      <c r="I251" t="s">
         <v>10</v>
       </c>
     </row>
